--- a/data/raw/election/voters-age-sex-education/2023/Karaman.xlsx
+++ b/data/raw/election/voters-age-sex-education/2023/Karaman.xlsx
@@ -5,21 +5,21 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\OneDrive - baskent.edu.tr\MAKALE\2024\5-anomaly-detection-in-elections\data\2023-iibs3-age_sex_education\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Neo\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12345"/>
   </bookViews>
   <sheets>
-    <sheet name="Kurtarılan_Sayfa1" sheetId="2" r:id="rId1"/>
+    <sheet name="18-10-2024-16:46:02-16299632371" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="35">
   <si>
     <t>Karaman</t>
   </si>
@@ -118,6 +118,12 @@
   </si>
   <si>
     <t>Sarıveliler</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not. 1.Seçmenlerin yaşı, 14 Mayıs 2023 tarihine göre gün, ay ve yıl dikkate alınarak hesaplanmıştır. </t>
+  </si>
+  <si>
+    <t>2.Seçmenlerin eğitim durumu, Ulusal Eğitim İstatistikleri Veri Tabanı'ndan alınmıştır.</t>
   </si>
 </sst>
 </file>
@@ -651,7 +657,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
@@ -671,10 +677,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="3" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="3" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="%20 - Vurgu1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -999,10 +1014,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:N160"/>
+  <dimension ref="A1:N162"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
-      <selection activeCell="A161" sqref="A161:A162"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1018,24 +1033,24 @@
     <col min="10" max="10" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="7.140625" customWidth="1"/>
     <col min="12" max="12" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7" customWidth="1"/>
+    <col min="13" max="13" width="6.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="7"/>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
+      <c r="A1" s="11"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
     </row>
     <row r="2" spans="1:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
@@ -2069,8 +2084,8 @@
       <c r="D30" s="5">
         <v>262</v>
       </c>
-      <c r="E30" s="5">
-        <v>2.657</v>
+      <c r="E30" s="7">
+        <v>2657</v>
       </c>
       <c r="F30" s="5">
         <v>580</v>
@@ -2078,8 +2093,8 @@
       <c r="G30" s="5">
         <v>762</v>
       </c>
-      <c r="H30" s="5">
-        <v>1.2230000000000001</v>
+      <c r="H30" s="7">
+        <v>1223</v>
       </c>
       <c r="I30" s="5">
         <v>573</v>
@@ -2093,8 +2108,8 @@
       <c r="L30" s="5">
         <v>29</v>
       </c>
-      <c r="M30" s="5">
-        <v>6.2359999999999998</v>
+      <c r="M30" s="7">
+        <v>6236</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
@@ -3131,8 +3146,8 @@
       <c r="L56" s="5">
         <v>13</v>
       </c>
-      <c r="M56" s="5">
-        <v>2.6360000000000001</v>
+      <c r="M56" s="7">
+        <v>2636</v>
       </c>
     </row>
     <row r="57" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
@@ -3211,8 +3226,8 @@
       <c r="L58" s="4">
         <v>10</v>
       </c>
-      <c r="M58" s="5">
-        <v>1.25</v>
+      <c r="M58" s="7">
+        <v>1250</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.25">
@@ -3250,8 +3265,8 @@
       <c r="L59" s="4">
         <v>2</v>
       </c>
-      <c r="M59" s="5">
-        <v>1.266</v>
+      <c r="M59" s="7">
+        <v>1266</v>
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.25">
@@ -4130,8 +4145,8 @@
       <c r="L81" s="4">
         <v>3</v>
       </c>
-      <c r="M81" s="5">
-        <v>1.258</v>
+      <c r="M81" s="7">
+        <v>1258</v>
       </c>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.25">
@@ -4145,20 +4160,20 @@
       <c r="D82" s="5">
         <v>819</v>
       </c>
-      <c r="E82" s="5">
-        <v>6.806</v>
-      </c>
-      <c r="F82" s="5">
-        <v>2.1859999999999999</v>
-      </c>
-      <c r="G82" s="5">
-        <v>2.7429999999999999</v>
-      </c>
-      <c r="H82" s="5">
-        <v>4.8230000000000004</v>
-      </c>
-      <c r="I82" s="5">
-        <v>2.819</v>
+      <c r="E82" s="7">
+        <v>6806</v>
+      </c>
+      <c r="F82" s="7">
+        <v>2186</v>
+      </c>
+      <c r="G82" s="7">
+        <v>2743</v>
+      </c>
+      <c r="H82" s="7">
+        <v>4823</v>
+      </c>
+      <c r="I82" s="7">
+        <v>2819</v>
       </c>
       <c r="J82" s="5">
         <v>298</v>
@@ -4169,8 +4184,8 @@
       <c r="L82" s="5">
         <v>68</v>
       </c>
-      <c r="M82" s="5">
-        <v>21.210999999999999</v>
+      <c r="M82" s="7">
+        <v>21211</v>
       </c>
     </row>
     <row r="83" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
@@ -4231,14 +4246,14 @@
       <c r="F84" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G84" s="4">
-        <v>2.9670000000000001</v>
-      </c>
-      <c r="H84" s="4">
-        <v>5.9009999999999998</v>
-      </c>
-      <c r="I84" s="4">
-        <v>1.4119999999999999</v>
+      <c r="G84" s="9">
+        <v>2967</v>
+      </c>
+      <c r="H84" s="9">
+        <v>5901</v>
+      </c>
+      <c r="I84" s="9">
+        <v>1412</v>
       </c>
       <c r="J84" s="4">
         <v>9</v>
@@ -4249,8 +4264,8 @@
       <c r="L84" s="4">
         <v>144</v>
       </c>
-      <c r="M84" s="5">
-        <v>10.478</v>
+      <c r="M84" s="7">
+        <v>10478</v>
       </c>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.25">
@@ -4270,14 +4285,14 @@
       <c r="F85" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G85" s="4">
-        <v>2.0710000000000002</v>
-      </c>
-      <c r="H85" s="4">
-        <v>6.2190000000000003</v>
-      </c>
-      <c r="I85" s="4">
-        <v>2.1019999999999999</v>
+      <c r="G85" s="9">
+        <v>2071</v>
+      </c>
+      <c r="H85" s="9">
+        <v>6219</v>
+      </c>
+      <c r="I85" s="9">
+        <v>2102</v>
       </c>
       <c r="J85" s="4">
         <v>17</v>
@@ -4288,8 +4303,8 @@
       <c r="L85" s="4">
         <v>117</v>
       </c>
-      <c r="M85" s="5">
-        <v>10.618</v>
+      <c r="M85" s="7">
+        <v>10618</v>
       </c>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.25">
@@ -4311,14 +4326,14 @@
       <c r="F86" s="4">
         <v>44</v>
       </c>
-      <c r="G86" s="4">
-        <v>2.282</v>
-      </c>
-      <c r="H86" s="4">
-        <v>2.0680000000000001</v>
-      </c>
-      <c r="I86" s="4">
-        <v>2.8359999999999999</v>
+      <c r="G86" s="9">
+        <v>2282</v>
+      </c>
+      <c r="H86" s="9">
+        <v>2068</v>
+      </c>
+      <c r="I86" s="9">
+        <v>2836</v>
       </c>
       <c r="J86" s="4">
         <v>195</v>
@@ -4329,8 +4344,8 @@
       <c r="L86" s="4">
         <v>85</v>
       </c>
-      <c r="M86" s="5">
-        <v>7.532</v>
+      <c r="M86" s="7">
+        <v>7532</v>
       </c>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.25">
@@ -4350,14 +4365,14 @@
       <c r="F87" s="4">
         <v>61</v>
       </c>
-      <c r="G87" s="4">
-        <v>1.7170000000000001</v>
-      </c>
-      <c r="H87" s="4">
-        <v>1.764</v>
-      </c>
-      <c r="I87" s="4">
-        <v>3.3849999999999998</v>
+      <c r="G87" s="9">
+        <v>1717</v>
+      </c>
+      <c r="H87" s="9">
+        <v>1764</v>
+      </c>
+      <c r="I87" s="9">
+        <v>3385</v>
       </c>
       <c r="J87" s="4">
         <v>233</v>
@@ -4368,8 +4383,8 @@
       <c r="L87" s="4">
         <v>81</v>
       </c>
-      <c r="M87" s="5">
-        <v>7.3250000000000002</v>
+      <c r="M87" s="7">
+        <v>7325</v>
       </c>
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.25">
@@ -4388,17 +4403,17 @@
       <c r="E88" s="4">
         <v>15</v>
       </c>
-      <c r="F88" s="4">
-        <v>1.3160000000000001</v>
+      <c r="F88" s="9">
+        <v>1316</v>
       </c>
       <c r="G88" s="4">
         <v>887</v>
       </c>
-      <c r="H88" s="4">
-        <v>1.9490000000000001</v>
-      </c>
-      <c r="I88" s="4">
-        <v>2.29</v>
+      <c r="H88" s="9">
+        <v>1949</v>
+      </c>
+      <c r="I88" s="9">
+        <v>2290</v>
       </c>
       <c r="J88" s="4">
         <v>321</v>
@@ -4409,8 +4424,8 @@
       <c r="L88" s="4">
         <v>88</v>
       </c>
-      <c r="M88" s="5">
-        <v>6.9370000000000003</v>
+      <c r="M88" s="7">
+        <v>6937</v>
       </c>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.25">
@@ -4427,17 +4442,17 @@
       <c r="E89" s="4">
         <v>37</v>
       </c>
-      <c r="F89" s="4">
-        <v>1.4570000000000001</v>
+      <c r="F89" s="9">
+        <v>1457</v>
       </c>
       <c r="G89" s="4">
         <v>724</v>
       </c>
-      <c r="H89" s="4">
-        <v>1.7330000000000001</v>
-      </c>
-      <c r="I89" s="4">
-        <v>2.5329999999999999</v>
+      <c r="H89" s="9">
+        <v>1733</v>
+      </c>
+      <c r="I89" s="9">
+        <v>2533</v>
       </c>
       <c r="J89" s="4">
         <v>328</v>
@@ -4448,8 +4463,8 @@
       <c r="L89" s="4">
         <v>83</v>
       </c>
-      <c r="M89" s="5">
-        <v>6.9880000000000004</v>
+      <c r="M89" s="7">
+        <v>6988</v>
       </c>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.25">
@@ -4468,17 +4483,17 @@
       <c r="E90" s="4">
         <v>403</v>
       </c>
-      <c r="F90" s="4">
-        <v>1.516</v>
+      <c r="F90" s="9">
+        <v>1516</v>
       </c>
       <c r="G90" s="4">
         <v>767</v>
       </c>
-      <c r="H90" s="4">
-        <v>2.2400000000000002</v>
-      </c>
-      <c r="I90" s="4">
-        <v>2.0779999999999998</v>
+      <c r="H90" s="9">
+        <v>2240</v>
+      </c>
+      <c r="I90" s="9">
+        <v>2078</v>
       </c>
       <c r="J90" s="4">
         <v>367</v>
@@ -4489,8 +4504,8 @@
       <c r="L90" s="4">
         <v>82</v>
       </c>
-      <c r="M90" s="5">
-        <v>7.5789999999999997</v>
+      <c r="M90" s="7">
+        <v>7579</v>
       </c>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.25">
@@ -4504,20 +4519,20 @@
       <c r="D91" s="4">
         <v>44</v>
       </c>
-      <c r="E91" s="4">
-        <v>1.0740000000000001</v>
-      </c>
-      <c r="F91" s="4">
-        <v>1.464</v>
+      <c r="E91" s="9">
+        <v>1074</v>
+      </c>
+      <c r="F91" s="9">
+        <v>1464</v>
       </c>
       <c r="G91" s="4">
         <v>859</v>
       </c>
-      <c r="H91" s="4">
-        <v>1.839</v>
-      </c>
-      <c r="I91" s="4">
-        <v>1.675</v>
+      <c r="H91" s="9">
+        <v>1839</v>
+      </c>
+      <c r="I91" s="9">
+        <v>1675</v>
       </c>
       <c r="J91" s="4">
         <v>290</v>
@@ -4528,8 +4543,8 @@
       <c r="L91" s="4">
         <v>97</v>
       </c>
-      <c r="M91" s="5">
-        <v>7.4269999999999996</v>
+      <c r="M91" s="7">
+        <v>7427</v>
       </c>
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.25">
@@ -4548,17 +4563,17 @@
       <c r="E92" s="4">
         <v>808</v>
       </c>
-      <c r="F92" s="4">
-        <v>1.2030000000000001</v>
-      </c>
-      <c r="G92" s="4">
-        <v>1.0720000000000001</v>
-      </c>
-      <c r="H92" s="4">
-        <v>2.2909999999999999</v>
-      </c>
-      <c r="I92" s="4">
-        <v>1.6259999999999999</v>
+      <c r="F92" s="9">
+        <v>1203</v>
+      </c>
+      <c r="G92" s="9">
+        <v>1072</v>
+      </c>
+      <c r="H92" s="9">
+        <v>2291</v>
+      </c>
+      <c r="I92" s="9">
+        <v>1626</v>
       </c>
       <c r="J92" s="4">
         <v>347</v>
@@ -4569,8 +4584,8 @@
       <c r="L92" s="4">
         <v>129</v>
       </c>
-      <c r="M92" s="5">
-        <v>7.577</v>
+      <c r="M92" s="7">
+        <v>7577</v>
       </c>
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.25">
@@ -4584,20 +4599,20 @@
       <c r="D93" s="4">
         <v>23</v>
       </c>
-      <c r="E93" s="4">
-        <v>1.728</v>
-      </c>
-      <c r="F93" s="4">
-        <v>1.1319999999999999</v>
-      </c>
-      <c r="G93" s="4">
-        <v>1.2250000000000001</v>
-      </c>
-      <c r="H93" s="4">
-        <v>1.5620000000000001</v>
-      </c>
-      <c r="I93" s="4">
-        <v>1.22</v>
+      <c r="E93" s="9">
+        <v>1728</v>
+      </c>
+      <c r="F93" s="9">
+        <v>1132</v>
+      </c>
+      <c r="G93" s="9">
+        <v>1225</v>
+      </c>
+      <c r="H93" s="9">
+        <v>1562</v>
+      </c>
+      <c r="I93" s="9">
+        <v>1220</v>
       </c>
       <c r="J93" s="4">
         <v>204</v>
@@ -4608,8 +4623,8 @@
       <c r="L93" s="4">
         <v>115</v>
       </c>
-      <c r="M93" s="5">
-        <v>7.2779999999999996</v>
+      <c r="M93" s="7">
+        <v>7278</v>
       </c>
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.25">
@@ -4628,17 +4643,17 @@
       <c r="E94" s="4">
         <v>995</v>
       </c>
-      <c r="F94" s="4">
-        <v>1.292</v>
+      <c r="F94" s="9">
+        <v>1292</v>
       </c>
       <c r="G94" s="4">
         <v>922</v>
       </c>
-      <c r="H94" s="4">
-        <v>1.6919999999999999</v>
-      </c>
-      <c r="I94" s="4">
-        <v>1.268</v>
+      <c r="H94" s="9">
+        <v>1692</v>
+      </c>
+      <c r="I94" s="9">
+        <v>1268</v>
       </c>
       <c r="J94" s="4">
         <v>205</v>
@@ -4649,8 +4664,8 @@
       <c r="L94" s="4">
         <v>134</v>
       </c>
-      <c r="M94" s="5">
-        <v>6.5780000000000003</v>
+      <c r="M94" s="7">
+        <v>6578</v>
       </c>
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.25">
@@ -4664,17 +4679,17 @@
       <c r="D95" s="4">
         <v>29</v>
       </c>
-      <c r="E95" s="4">
-        <v>2.0190000000000001</v>
-      </c>
-      <c r="F95" s="4">
-        <v>1.4319999999999999</v>
-      </c>
-      <c r="G95" s="4">
-        <v>1.07</v>
-      </c>
-      <c r="H95" s="4">
-        <v>1.165</v>
+      <c r="E95" s="9">
+        <v>2019</v>
+      </c>
+      <c r="F95" s="9">
+        <v>1432</v>
+      </c>
+      <c r="G95" s="9">
+        <v>1070</v>
+      </c>
+      <c r="H95" s="9">
+        <v>1165</v>
       </c>
       <c r="I95" s="4">
         <v>775</v>
@@ -4688,8 +4703,8 @@
       <c r="L95" s="4">
         <v>119</v>
       </c>
-      <c r="M95" s="5">
-        <v>6.7320000000000002</v>
+      <c r="M95" s="7">
+        <v>6732</v>
       </c>
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.25">
@@ -4705,17 +4720,17 @@
       <c r="D96" s="4">
         <v>7</v>
       </c>
-      <c r="E96" s="4">
-        <v>1.196</v>
-      </c>
-      <c r="F96" s="4">
-        <v>1.4450000000000001</v>
+      <c r="E96" s="9">
+        <v>1196</v>
+      </c>
+      <c r="F96" s="9">
+        <v>1445</v>
       </c>
       <c r="G96" s="4">
         <v>964</v>
       </c>
-      <c r="H96" s="4">
-        <v>1.179</v>
+      <c r="H96" s="9">
+        <v>1179</v>
       </c>
       <c r="I96" s="4">
         <v>985</v>
@@ -4729,8 +4744,8 @@
       <c r="L96" s="4">
         <v>161</v>
       </c>
-      <c r="M96" s="5">
-        <v>6.1269999999999998</v>
+      <c r="M96" s="7">
+        <v>6127</v>
       </c>
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.25">
@@ -4744,11 +4759,11 @@
       <c r="D97" s="4">
         <v>36</v>
       </c>
-      <c r="E97" s="4">
-        <v>2.4870000000000001</v>
-      </c>
-      <c r="F97" s="4">
-        <v>1.3779999999999999</v>
+      <c r="E97" s="9">
+        <v>2487</v>
+      </c>
+      <c r="F97" s="9">
+        <v>1378</v>
       </c>
       <c r="G97" s="4">
         <v>939</v>
@@ -4768,8 +4783,8 @@
       <c r="L97" s="4">
         <v>184</v>
       </c>
-      <c r="M97" s="5">
-        <v>6.2380000000000004</v>
+      <c r="M97" s="7">
+        <v>6238</v>
       </c>
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.25">
@@ -4785,11 +4800,11 @@
       <c r="D98" s="4">
         <v>16</v>
       </c>
-      <c r="E98" s="4">
-        <v>1.409</v>
-      </c>
-      <c r="F98" s="4">
-        <v>1.1319999999999999</v>
+      <c r="E98" s="9">
+        <v>1409</v>
+      </c>
+      <c r="F98" s="9">
+        <v>1132</v>
       </c>
       <c r="G98" s="4">
         <v>788</v>
@@ -4809,8 +4824,8 @@
       <c r="L98" s="4">
         <v>218</v>
       </c>
-      <c r="M98" s="5">
-        <v>5.3010000000000002</v>
+      <c r="M98" s="7">
+        <v>5301</v>
       </c>
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.25">
@@ -4824,8 +4839,8 @@
       <c r="D99" s="4">
         <v>63</v>
       </c>
-      <c r="E99" s="4">
-        <v>2.81</v>
+      <c r="E99" s="9">
+        <v>2810</v>
       </c>
       <c r="F99" s="4">
         <v>957</v>
@@ -4848,8 +4863,8 @@
       <c r="L99" s="4">
         <v>202</v>
       </c>
-      <c r="M99" s="5">
-        <v>5.5209999999999999</v>
+      <c r="M99" s="7">
+        <v>5521</v>
       </c>
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.25">
@@ -4865,8 +4880,8 @@
       <c r="D100" s="4">
         <v>20</v>
       </c>
-      <c r="E100" s="4">
-        <v>1.696</v>
+      <c r="E100" s="9">
+        <v>1696</v>
       </c>
       <c r="F100" s="4">
         <v>698</v>
@@ -4889,8 +4904,8 @@
       <c r="L100" s="4">
         <v>232</v>
       </c>
-      <c r="M100" s="5">
-        <v>4.3710000000000004</v>
+      <c r="M100" s="7">
+        <v>4371</v>
       </c>
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.25">
@@ -4904,8 +4919,8 @@
       <c r="D101" s="4">
         <v>117</v>
       </c>
-      <c r="E101" s="4">
-        <v>3.0129999999999999</v>
+      <c r="E101" s="9">
+        <v>3013</v>
       </c>
       <c r="F101" s="4">
         <v>450</v>
@@ -4928,8 +4943,8 @@
       <c r="L101" s="4">
         <v>197</v>
       </c>
-      <c r="M101" s="5">
-        <v>4.8120000000000003</v>
+      <c r="M101" s="7">
+        <v>4812</v>
       </c>
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.25">
@@ -4945,8 +4960,8 @@
       <c r="D102" s="4">
         <v>58</v>
       </c>
-      <c r="E102" s="4">
-        <v>1.8089999999999999</v>
+      <c r="E102" s="9">
+        <v>1809</v>
       </c>
       <c r="F102" s="4">
         <v>291</v>
@@ -4969,8 +4984,8 @@
       <c r="L102" s="4">
         <v>197</v>
       </c>
-      <c r="M102" s="5">
-        <v>3.5259999999999998</v>
+      <c r="M102" s="7">
+        <v>3526</v>
       </c>
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.25">
@@ -4984,8 +4999,8 @@
       <c r="D103" s="4">
         <v>259</v>
       </c>
-      <c r="E103" s="4">
-        <v>2.5840000000000001</v>
+      <c r="E103" s="9">
+        <v>2584</v>
       </c>
       <c r="F103" s="4">
         <v>146</v>
@@ -5008,8 +5023,8 @@
       <c r="L103" s="4">
         <v>189</v>
       </c>
-      <c r="M103" s="5">
-        <v>3.8570000000000002</v>
+      <c r="M103" s="7">
+        <v>3857</v>
       </c>
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.25">
@@ -5025,8 +5040,8 @@
       <c r="D104" s="4">
         <v>68</v>
       </c>
-      <c r="E104" s="4">
-        <v>1.5740000000000001</v>
+      <c r="E104" s="9">
+        <v>1574</v>
       </c>
       <c r="F104" s="4">
         <v>106</v>
@@ -5049,8 +5064,8 @@
       <c r="L104" s="4">
         <v>171</v>
       </c>
-      <c r="M104" s="5">
-        <v>2.62</v>
+      <c r="M104" s="7">
+        <v>2620</v>
       </c>
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.25">
@@ -5064,8 +5079,8 @@
       <c r="D105" s="4">
         <v>435</v>
       </c>
-      <c r="E105" s="4">
-        <v>1.772</v>
+      <c r="E105" s="9">
+        <v>1772</v>
       </c>
       <c r="F105" s="4">
         <v>41</v>
@@ -5088,8 +5103,8 @@
       <c r="L105" s="4">
         <v>136</v>
       </c>
-      <c r="M105" s="5">
-        <v>2.9620000000000002</v>
+      <c r="M105" s="7">
+        <v>2962</v>
       </c>
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.25">
@@ -5105,8 +5120,8 @@
       <c r="D106" s="4">
         <v>518</v>
       </c>
-      <c r="E106" s="4">
-        <v>1.754</v>
+      <c r="E106" s="9">
+        <v>1754</v>
       </c>
       <c r="F106" s="4">
         <v>39</v>
@@ -5129,8 +5144,8 @@
       <c r="L106" s="4">
         <v>150</v>
       </c>
-      <c r="M106" s="5">
-        <v>3.0750000000000002</v>
+      <c r="M106" s="7">
+        <v>3075</v>
       </c>
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.25">
@@ -5138,14 +5153,14 @@
       <c r="B107" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C107" s="4">
-        <v>1.2789999999999999</v>
-      </c>
-      <c r="D107" s="4">
-        <v>1.165</v>
-      </c>
-      <c r="E107" s="4">
-        <v>1.5149999999999999</v>
+      <c r="C107" s="9">
+        <v>1279</v>
+      </c>
+      <c r="D107" s="9">
+        <v>1165</v>
+      </c>
+      <c r="E107" s="9">
+        <v>1515</v>
       </c>
       <c r="F107" s="4">
         <v>5</v>
@@ -5168,8 +5183,8 @@
       <c r="L107" s="4">
         <v>133</v>
       </c>
-      <c r="M107" s="5">
-        <v>4.2439999999999998</v>
+      <c r="M107" s="7">
+        <v>4244</v>
       </c>
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.25">
@@ -5177,38 +5192,38 @@
         <v>12</v>
       </c>
       <c r="B108" s="6"/>
-      <c r="C108" s="5">
-        <v>2.4049999999999998</v>
-      </c>
-      <c r="D108" s="5">
-        <v>3.0720000000000001</v>
-      </c>
-      <c r="E108" s="5">
-        <v>30.812999999999999</v>
-      </c>
-      <c r="F108" s="5">
-        <v>17.605</v>
-      </c>
-      <c r="G108" s="5">
-        <v>21.847999999999999</v>
-      </c>
-      <c r="H108" s="5">
-        <v>36.01</v>
-      </c>
-      <c r="I108" s="5">
-        <v>26.975999999999999</v>
-      </c>
-      <c r="J108" s="5">
-        <v>2.9350000000000001</v>
+      <c r="C108" s="7">
+        <v>2405</v>
+      </c>
+      <c r="D108" s="7">
+        <v>3072</v>
+      </c>
+      <c r="E108" s="7">
+        <v>30813</v>
+      </c>
+      <c r="F108" s="7">
+        <v>17605</v>
+      </c>
+      <c r="G108" s="7">
+        <v>21848</v>
+      </c>
+      <c r="H108" s="7">
+        <v>36010</v>
+      </c>
+      <c r="I108" s="7">
+        <v>26976</v>
+      </c>
+      <c r="J108" s="7">
+        <v>2935</v>
       </c>
       <c r="K108" s="5">
         <v>595</v>
       </c>
-      <c r="L108" s="5">
-        <v>3.444</v>
-      </c>
-      <c r="M108" s="5">
-        <v>145.703</v>
+      <c r="L108" s="7">
+        <v>3444</v>
+      </c>
+      <c r="M108" s="7">
+        <v>145703</v>
       </c>
     </row>
     <row r="109" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
@@ -6245,8 +6260,8 @@
       <c r="L134" s="5">
         <v>83</v>
       </c>
-      <c r="M134" s="5">
-        <v>3.2389999999999999</v>
+      <c r="M134" s="7">
+        <v>3239</v>
       </c>
     </row>
     <row r="135" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
@@ -7259,20 +7274,20 @@
       <c r="D160" s="5">
         <v>380</v>
       </c>
-      <c r="E160" s="5">
-        <v>2.944</v>
-      </c>
-      <c r="F160" s="5">
-        <v>1.0900000000000001</v>
-      </c>
-      <c r="G160" s="5">
-        <v>1.214</v>
-      </c>
-      <c r="H160" s="5">
-        <v>1.901</v>
-      </c>
-      <c r="I160" s="5">
-        <v>1.0840000000000001</v>
+      <c r="E160" s="7">
+        <v>2944</v>
+      </c>
+      <c r="F160" s="7">
+        <v>1090</v>
+      </c>
+      <c r="G160" s="7">
+        <v>1214</v>
+      </c>
+      <c r="H160" s="7">
+        <v>1901</v>
+      </c>
+      <c r="I160" s="7">
+        <v>1084</v>
       </c>
       <c r="J160" s="5">
         <v>88</v>
@@ -7283,19 +7298,29 @@
       <c r="L160" s="5">
         <v>55</v>
       </c>
-      <c r="M160" s="5">
-        <v>8.875</v>
+      <c r="M160" s="7">
+        <v>8875</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A161" s="10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A162" s="10" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A109:B109"/>
-    <mergeCell ref="A135:B135"/>
     <mergeCell ref="A4:M4"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="A31:B31"/>
     <mergeCell ref="A57:B57"/>
     <mergeCell ref="A83:B83"/>
+    <mergeCell ref="A109:B109"/>
+    <mergeCell ref="A135:B135"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
